--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf6-Bmpr1b.xlsx
@@ -537,10 +537,10 @@
         <v>0.370282</v>
       </c>
       <c r="I2">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J2">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q2">
         <v>0.2107875541688889</v>
@@ -567,10 +567,10 @@
         <v>1.89708798752</v>
       </c>
       <c r="S2">
-        <v>0.4422893429925981</v>
+        <v>0.3962000792541637</v>
       </c>
       <c r="T2">
-        <v>0.4422893429925981</v>
+        <v>0.3962000792541637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.370282</v>
       </c>
       <c r="I3">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790276</v>
       </c>
       <c r="J3">
-        <v>0.5046645923030479</v>
+        <v>0.5586792620790275</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N3">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q3">
-        <v>0.029726979524</v>
+        <v>0.08644266203955557</v>
       </c>
       <c r="R3">
-        <v>0.267542815716</v>
+        <v>0.777983958356</v>
       </c>
       <c r="S3">
-        <v>0.06237524931044976</v>
+        <v>0.1624791828248639</v>
       </c>
       <c r="T3">
-        <v>0.06237524931044976</v>
+        <v>0.1624791828248639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H4">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I4">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J4">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,22 +679,22 @@
         <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q4">
-        <v>0.2068909542577778</v>
+        <v>0.1665086307377778</v>
       </c>
       <c r="R4">
-        <v>1.86201858832</v>
+        <v>1.49857767664</v>
       </c>
       <c r="S4">
-        <v>0.4341132216775346</v>
+        <v>0.3129726181174446</v>
       </c>
       <c r="T4">
-        <v>0.4341132216775346</v>
+        <v>0.3129726181174446</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1211456666666667</v>
+        <v>0.09749966666666667</v>
       </c>
       <c r="H5">
-        <v>0.363437</v>
+        <v>0.292499</v>
       </c>
       <c r="I5">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="J5">
-        <v>0.4953354076969521</v>
+        <v>0.4413207379209724</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -735,28 +735,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N5">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q5">
-        <v>0.029177449234</v>
+        <v>0.06828415154911112</v>
       </c>
       <c r="R5">
-        <v>0.262597043106</v>
+        <v>0.614557363942</v>
       </c>
       <c r="S5">
-        <v>0.06122218601941744</v>
+        <v>0.1283481198035278</v>
       </c>
       <c r="T5">
-        <v>0.06122218601941744</v>
+        <v>0.1283481198035278</v>
       </c>
     </row>
   </sheetData>
